--- a/excel/baseDatosExcel.xlsx
+++ b/excel/baseDatosExcel.xlsx
@@ -1,64 +1,442 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView windowWidth="28800" windowHeight="12525"/>
+  </bookViews>
   <sheets>
     <sheet name="bd_estudiantes" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja02|" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja03|" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+  <si>
+    <t>CÓDIGO</t>
+  </si>
+  <si>
+    <t>NOMBRES</t>
+  </si>
+  <si>
+    <t>GRADO</t>
+  </si>
+  <si>
+    <t>PUNTAJE</t>
+  </si>
+  <si>
+    <t>Tomás Vargas Suárez</t>
+  </si>
+  <si>
+    <t>Isabela Vargas C.</t>
+  </si>
+  <si>
+    <t>Lisdey Suárez Prieto</t>
+  </si>
+  <si>
+    <t>Edwin Vargas Galvis</t>
+  </si>
+  <si>
+    <t>Ibuprofeno Acetaminofen</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>ciudad</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>María</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -66,18 +444,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -397,266 +1069,225 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="22.5555555555556" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>CÓDIGO</v>
-      </c>
-      <c r="B1" t="str">
-        <v>NOMBRES</v>
-      </c>
-      <c r="C1" t="str">
-        <v>GRADO</v>
-      </c>
-      <c r="D1" t="str">
-        <v>PUNTAJE</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>101</v>
       </c>
-      <c r="B2" t="str">
-        <v>Tomás Vargas Suárez</v>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>102</v>
       </c>
-      <c r="B3" t="str">
-        <v>Isabela Vargas C.</v>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>103</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>104</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>105</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>120</v>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D21"/>
+    <ignoredError sqref="A1:D1;A2:C2;A3:D3;A4;D4;A5;D5;A6;D6;B7:D21" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Nombre</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Edad</v>
-      </c>
-      <c r="C1" t="str">
-        <v>ciudad</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Juan</v>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>12</v>
       </c>
       <c r="B2">
         <v>30</v>
       </c>
-      <c r="C2" t="str">
-        <v>Madrid</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>María</v>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>14</v>
       </c>
       <c r="B3">
         <v>25</v>
       </c>
-      <c r="C3" t="str">
-        <v>Barcelona</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Pedro</v>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
       <c r="B4">
         <v>35</v>
       </c>
-      <c r="C4" t="str">
-        <v>Valencia</v>
+      <c r="C4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError sqref="A1:C4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Nombre</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Edad</v>
-      </c>
-      <c r="C1" t="str">
-        <v>ciudad</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Juan</v>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>12</v>
       </c>
       <c r="B2">
         <v>30</v>
       </c>
-      <c r="C2" t="str">
-        <v>Madrid</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>María</v>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>14</v>
       </c>
       <c r="B3">
         <v>25</v>
       </c>
-      <c r="C3" t="str">
-        <v>Barcelona</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Pedro</v>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
       <c r="B4">
         <v>35</v>
       </c>
-      <c r="C4" t="str">
-        <v>Valencia</v>
+      <c r="C4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError sqref="A1:C4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/excel/baseDatosExcel.xlsx
+++ b/excel/baseDatosExcel.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
-    <t>CÓDIGO</t>
+    <t>COD</t>
   </si>
   <si>
     <t>NOMBRES</t>
@@ -77,12 +77,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,6 +91,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -99,10 +122,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,74 +138,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,49 +212,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -257,181 +265,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,17 +453,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,9 +479,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,19 +521,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,161 +530,179 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1078,7 +1089,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1087,20 +1098,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>101</v>
       </c>
@@ -1110,8 +1121,11 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>102</v>
       </c>
@@ -1121,8 +1135,11 @@
       <c r="C3">
         <v>10</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>103</v>
       </c>
@@ -1132,8 +1149,11 @@
       <c r="C4">
         <v>7</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1143,8 +1163,11 @@
       <c r="C5">
         <v>8</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>105</v>
       </c>
@@ -1153,13 +1176,16 @@
       </c>
       <c r="C6">
         <v>9</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D1;A2:C2;A3:D3;A4;D4;A5;D5;A6;D6;B7:D21" numberStoredAsText="1"/>
+    <ignoredError sqref="B2;B3;C7:D21;C1:D1;C3;C2;B1;A2;A4;A5;A6;B7:B21;A3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
